--- a/biology/Histoire de la zoologie et de la botanique/Musée_Horniman/Musée_Horniman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Musée_Horniman/Musée_Horniman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Horniman</t>
+          <t>Musée_Horniman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Horniman Museum est un  musée  britannique  situé dans le district de Forest Hill à Londres.
-Il présente des collections anthropologiques, d'histoire naturelle et d'instruments de musique. Il comprend également un jardin[1],[2].
+Il présente des collections anthropologiques, d'histoire naturelle et d'instruments de musique. Il comprend également un jardin,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Horniman</t>
+          <t>Musée_Horniman</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bâtiments du musée, conçus par l'architecte Charles Harrison Townsend, sont un exemple de réalisation de style Arts &amp; Crafts[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bâtiments du musée, conçus par l'architecte Charles Harrison Townsend, sont un exemple de réalisation de style Arts &amp; Crafts.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Horniman</t>
+          <t>Musée_Horniman</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée a été fondé en 1898 par le négociant de thé Frederick John Horniman. Il a été conçu par Charles Harrison Townsend dans le style moderne britannique. Il a été inauguré en 1901. En 1911, un bâtiment supplémentaire y a été adjoint[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée a été fondé en 1898 par le négociant de thé Frederick John Horniman. Il a été conçu par Charles Harrison Townsend dans le style moderne britannique. Il a été inauguré en 1901. En 1911, un bâtiment supplémentaire y a été adjoint.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Horniman</t>
+          <t>Musée_Horniman</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Muséographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée comprend environ 90 000 objets anthropologiques, 250 000 spécimens d'histoire naturelle et 8 000 instruments de musique.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Horniman</t>
+          <t>Musée_Horniman</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Jardins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée est situé dans 65 000 m 2 (6,5 ha) de jardins, qui comprennent les caractéristiques suivantes :
 Une serre métallique de 1894, classée de Grade II, qui a été déplacée de la maison de famille de Horniman à Croydon au présent site dans les années 1980.
